--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\2024-2-Semestre_Fi_UNAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD635397-2B05-4CF6-A63E-0B229FCDA63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BE1FC4-0C97-4787-8765-F8B332CF0031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{79FACB5A-E766-4796-8CF8-8078FF3D5D2F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{79FACB5A-E766-4796-8CF8-8078FF3D5D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>Lunes</t>
   </si>
@@ -65,13 +65,34 @@
     <t>A206</t>
   </si>
   <si>
-    <t>Y202</t>
-  </si>
-  <si>
-    <t>A201</t>
-  </si>
-  <si>
-    <t>Línea</t>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Cuantica</t>
+  </si>
+  <si>
+    <t>Y206</t>
+  </si>
+  <si>
+    <t>Mineria</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Comer</t>
+  </si>
+  <si>
+    <t>GYM</t>
+  </si>
+  <si>
+    <t>Redes</t>
   </si>
 </sst>
 </file>
@@ -100,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +164,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -156,31 +189,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A09AA2-429D-431A-B7EE-0EBAACA76DCD}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,194 +589,343 @@
       <c r="A2" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.3125</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.35416666666666702</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.375</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.39583333333333398</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.4375</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.625</v>
       </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.64583333333333304</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.6875</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.75</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.77083333333333304</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.8125</v>
       </c>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
